--- a/data/grocery-sales.xlsx
+++ b/data/grocery-sales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmc\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338B54F8-0DDE-4BB4-B3A0-9A913E395C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAFEEB3-63CC-4FB2-84D2-0DD8468062A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-78" yWindow="0" windowWidth="11676" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,17 +373,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1241 +394,1219 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
-        <v>74900</v>
+      <c r="B2" s="3">
+        <v>74.900000000000006</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
         <v>1.7663043478260976</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45566</v>
       </c>
-      <c r="B3" s="4">
-        <v>75300</v>
+      <c r="B3" s="3">
+        <v>75.3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C2:C65" si="0">(B3/B15-1)*100</f>
+        <f t="shared" ref="C3:C65" si="0">(B3/B15-1)*100</f>
         <v>2.4489795918367419</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45536</v>
       </c>
-      <c r="B4" s="4">
-        <v>75300</v>
+      <c r="B4" s="3">
+        <v>75.3</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
         <v>2.4489795918367419</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45505</v>
       </c>
-      <c r="B5" s="4">
-        <v>74500</v>
+      <c r="B5" s="3">
+        <v>74.5</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
         <v>1.4986376021798309</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45474</v>
       </c>
-      <c r="B6" s="4">
-        <v>74900</v>
+      <c r="B6" s="3">
+        <v>74.900000000000006</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>2.6027397260274032</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45444</v>
       </c>
-      <c r="B7" s="4">
-        <v>73900</v>
+      <c r="B7" s="3">
+        <v>73.900000000000006</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>2.2130013831258566</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2.2130013831258788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45413</v>
       </c>
-      <c r="B8" s="4">
-        <v>73800</v>
+      <c r="B8" s="3">
+        <v>73.8</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>1.2345679012345734</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2345679012345512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45383</v>
       </c>
-      <c r="B9" s="4">
-        <v>74100</v>
+      <c r="B9" s="3">
+        <v>74.099999999999994</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>1.6460905349794164</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45352</v>
       </c>
-      <c r="B10" s="4">
-        <v>73600</v>
+      <c r="B10" s="3">
+        <v>73.599999999999994</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.5464480874316946</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>0.54644808743167239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45323</v>
       </c>
-      <c r="B11" s="4">
-        <v>73300</v>
+      <c r="B11" s="3">
+        <v>73.3</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>-0.40760869565217295</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45292</v>
       </c>
-      <c r="B12" s="4">
-        <v>73400</v>
+      <c r="B12" s="3">
+        <v>73.400000000000006</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.82417582417582125</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>0.82417582417584345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45261</v>
       </c>
-      <c r="B13" s="4">
-        <v>73500</v>
+      <c r="B13" s="3">
+        <v>73.5</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>0.27285129604366354</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45231</v>
       </c>
-      <c r="B14" s="4">
-        <v>73600</v>
+      <c r="B14" s="3">
+        <v>73.599999999999994</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>0.27247956403269047</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45200</v>
       </c>
-      <c r="B15" s="4">
-        <v>73500</v>
+      <c r="B15" s="3">
+        <v>73.5</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>0.4098360655737654</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45170</v>
       </c>
-      <c r="B16" s="4">
-        <v>73500</v>
+      <c r="B16" s="3">
+        <v>73.5</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>1.379310344827589</v>
       </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45139</v>
       </c>
-      <c r="B17" s="4">
-        <v>73400</v>
+      <c r="B17" s="3">
+        <v>73.400000000000006</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>2.0862308762169768</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45108</v>
       </c>
-      <c r="B18" s="4">
-        <v>73000</v>
+      <c r="B18" s="3">
+        <v>73</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>1.8131101813110284</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1.8131101813110062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45078</v>
       </c>
-      <c r="B19" s="4">
-        <v>72300</v>
+      <c r="B19" s="3">
+        <v>72.3</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>0.83682008368199945</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45047</v>
       </c>
-      <c r="B20" s="4">
-        <v>72900</v>
+      <c r="B20" s="3">
+        <v>72.900000000000006</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>2.3876404494381998</v>
       </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45017</v>
       </c>
-      <c r="B21" s="4">
-        <v>72900</v>
+      <c r="B21" s="3">
+        <v>72.900000000000006</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>3.5511363636363535</v>
       </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44986</v>
       </c>
-      <c r="B22" s="4">
-        <v>73200</v>
+      <c r="B22" s="3">
+        <v>73.2</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>4.4222539229671787</v>
-      </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>4.4222539229672009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44958</v>
       </c>
-      <c r="B23" s="4">
-        <v>73600</v>
+      <c r="B23" s="3">
+        <v>73.599999999999994</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>6.2049062049062131</v>
-      </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>6.2049062049061909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44927</v>
       </c>
-      <c r="B24" s="4">
-        <v>72800</v>
+      <c r="B24" s="3">
+        <v>72.8</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>5.0505050505050608</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44896</v>
       </c>
-      <c r="B25" s="4">
-        <v>73300</v>
+      <c r="B25" s="3">
+        <v>73.3</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
         <v>6.5406976744186052</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44866</v>
       </c>
-      <c r="B26" s="4">
-        <v>73400</v>
+      <c r="B26" s="3">
+        <v>73.400000000000006</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
         <v>7.6246334310850372</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44835</v>
       </c>
-      <c r="B27" s="4">
-        <v>73200</v>
+      <c r="B27" s="3">
+        <v>73.2</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>7.4889867841409608</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>7.488986784140983</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44805</v>
       </c>
-      <c r="B28" s="4">
-        <v>72500</v>
+      <c r="B28" s="3">
+        <v>72.5</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>6.9321533923303758</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>6.932153392330398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44774</v>
       </c>
-      <c r="B29" s="4">
-        <v>71900</v>
+      <c r="B29" s="3">
+        <v>71.900000000000006</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
         <v>6.5185185185185235</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44743</v>
       </c>
-      <c r="B30" s="4">
-        <v>71700</v>
+      <c r="B30" s="3">
+        <v>71.7</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
         <v>8.9665653495440765</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44713</v>
       </c>
-      <c r="B31" s="4">
-        <v>71700</v>
+      <c r="B31" s="3">
+        <v>71.7</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>8.9665653495440765</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44682</v>
       </c>
-      <c r="B32" s="4">
-        <v>71200</v>
+      <c r="B32" s="3">
+        <v>71.2</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>9.2024539877300526</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44652</v>
       </c>
-      <c r="B33" s="4">
-        <v>70400</v>
+      <c r="B33" s="3">
+        <v>70.400000000000006</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>8.9783281733746065</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8.9783281733746279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44621</v>
       </c>
-      <c r="B34" s="4">
-        <v>70100</v>
+      <c r="B34" s="3">
+        <v>70.099999999999994</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
         <v>9.5312499999999911</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44593</v>
       </c>
-      <c r="B35" s="4">
-        <v>69300</v>
+      <c r="B35" s="3">
+        <v>69.3</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
         <v>8.6206896551724199</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44562</v>
       </c>
-      <c r="B36" s="4">
-        <v>69300</v>
+      <c r="B36" s="3">
+        <v>69.3</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
         <v>9.1338582677165334</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44531</v>
       </c>
-      <c r="B37" s="4">
-        <v>68800</v>
+      <c r="B37" s="3">
+        <v>68.8</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>9.7288676236044758</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>9.7288676236044545</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44501</v>
       </c>
-      <c r="B38" s="4">
-        <v>68200</v>
+      <c r="B38" s="3">
+        <v>68.2</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
         <v>8.5987261146496898</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44470</v>
       </c>
-      <c r="B39" s="4">
-        <v>68100</v>
+      <c r="B39" s="3">
+        <v>68.099999999999994</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
         <v>10.016155088852985</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44440</v>
       </c>
-      <c r="B40" s="4">
-        <v>67800</v>
+      <c r="B40" s="3">
+        <v>67.8</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
         <v>8.8282504012840981</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44409</v>
       </c>
-      <c r="B41" s="4">
-        <v>67500</v>
+      <c r="B41" s="3">
+        <v>67.5</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
         <v>8.1730769230769162</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44378</v>
       </c>
-      <c r="B42" s="4">
-        <v>65800</v>
+      <c r="B42" s="3">
+        <v>65.8</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>3.6220472440944951</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>3.6220472440944729</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44348</v>
       </c>
-      <c r="B43" s="4">
-        <v>65800</v>
+      <c r="B43" s="3">
+        <v>65.8</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
         <v>4.2789223454833492</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44317</v>
       </c>
-      <c r="B44" s="4">
-        <v>65200</v>
+      <c r="B44" s="3">
+        <v>65.2</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
         <v>0.92879256965945345</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44287</v>
       </c>
-      <c r="B45" s="4">
-        <v>64600</v>
+      <c r="B45" s="3">
+        <v>64.599999999999994</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
         <v>0.78003120124805481</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44256</v>
       </c>
-      <c r="B46" s="4">
-        <v>64000</v>
+      <c r="B46" s="3">
+        <v>64</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>-13.746630727762799</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>-13.74663072776281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44228</v>
       </c>
-      <c r="B47" s="4">
-        <v>63800</v>
+      <c r="B47" s="3">
+        <v>63.8</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
         <v>10.189982728842839</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44197</v>
       </c>
-      <c r="B48" s="4">
-        <v>63500</v>
+      <c r="B48" s="3">
+        <v>63.5</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
         <v>9.6718480138169305</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44166</v>
       </c>
-      <c r="B49" s="4">
-        <v>62700</v>
+      <c r="B49" s="3">
+        <v>62.7</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
         <v>7.1794871794871762</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44136</v>
       </c>
-      <c r="B50" s="4">
-        <v>62800</v>
+      <c r="B50" s="3">
+        <v>62.8</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
         <v>8.2758620689655125</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44105</v>
       </c>
-      <c r="B51" s="4">
-        <v>61900</v>
+      <c r="B51" s="3">
+        <v>61.9</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
         <v>6.9084628670120996</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44075</v>
       </c>
-      <c r="B52" s="4">
-        <v>62300</v>
+      <c r="B52" s="3">
+        <v>62.3</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
         <v>7.2289156626506035</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44044</v>
       </c>
-      <c r="B53" s="4">
-        <v>62400</v>
+      <c r="B53" s="3">
+        <v>62.4</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
         <v>6.3032367972742698</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44013</v>
       </c>
-      <c r="B54" s="4">
-        <v>63500</v>
+      <c r="B54" s="3">
+        <v>63.5</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
         <v>8.361774744027306</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43983</v>
       </c>
-      <c r="B55" s="4">
-        <v>63100</v>
+      <c r="B55" s="3">
+        <v>63.1</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
         <v>8.9810017271157108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43952</v>
       </c>
-      <c r="B56" s="4">
-        <v>64600</v>
+      <c r="B56" s="3">
+        <v>64.599999999999994</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>11.958405545927221</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>11.958405545927198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43922</v>
       </c>
-      <c r="B57" s="4">
-        <v>64100</v>
+      <c r="B57" s="3">
+        <v>64.099999999999994</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
         <v>11.09185441941074</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43891</v>
       </c>
-      <c r="B58" s="4">
-        <v>74200</v>
+      <c r="B58" s="3">
+        <v>74.2</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
         <v>29.268292682926834</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43862</v>
       </c>
-      <c r="B59" s="4">
-        <v>57900</v>
+      <c r="B59" s="3">
+        <v>57.9</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
         <v>2.659574468085113</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43831</v>
       </c>
-      <c r="B60" s="4">
-        <v>57900</v>
+      <c r="B60" s="3">
+        <v>57.9</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>0.69565217391305278</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0.69565217391303058</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43800</v>
       </c>
-      <c r="B61" s="4">
-        <v>58500</v>
+      <c r="B61" s="3">
+        <v>58.5</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
         <v>3.3568904593639592</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43770</v>
       </c>
-      <c r="B62" s="4">
-        <v>58000</v>
+      <c r="B62" s="3">
+        <v>58</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
         <v>2.4734982332155431</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43739</v>
       </c>
-      <c r="B63" s="4">
-        <v>57900</v>
+      <c r="B63" s="3">
+        <v>57.9</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
         <v>2.659574468085113</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43709</v>
       </c>
-      <c r="B64" s="4">
-        <v>58100</v>
+      <c r="B64" s="3">
+        <v>58.1</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
         <v>3.380782918149472</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43678</v>
       </c>
-      <c r="B65" s="4">
-        <v>58700</v>
+      <c r="B65" s="3">
+        <v>58.7</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
         <v>5.0089445438282754</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43647</v>
       </c>
-      <c r="B66" s="4">
-        <v>58600</v>
+      <c r="B66" s="3">
+        <v>58.6</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C98" si="1">(B66/B78-1)*100</f>
+        <f t="shared" ref="C66:C93" si="1">(B66/B78-1)*100</f>
         <v>4.4563279857397609</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43617</v>
       </c>
-      <c r="B67" s="4">
-        <v>57900</v>
+      <c r="B67" s="3">
+        <v>57.9</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
-        <v>3.9497307001795434</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>3.9497307001795212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43586</v>
       </c>
-      <c r="B68" s="4">
-        <v>57700</v>
+      <c r="B68" s="3">
+        <v>57.7</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
         <v>3.2200357781753119</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43556</v>
       </c>
-      <c r="B69" s="4">
-        <v>57700</v>
+      <c r="B69" s="3">
+        <v>57.7</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
         <v>3.2200357781753119</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43525</v>
       </c>
-      <c r="B70" s="4">
-        <v>57400</v>
+      <c r="B70" s="3">
+        <v>57.4</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
         <v>3.0520646319569078</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43497</v>
       </c>
-      <c r="B71" s="4">
-        <v>56400</v>
+      <c r="B71" s="3">
+        <v>56.4</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
         <v>1.4388489208633004</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43466</v>
       </c>
-      <c r="B72" s="4">
-        <v>57500</v>
+      <c r="B72" s="3">
+        <v>57.5</v>
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
         <v>3.9783001808318286</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43435</v>
       </c>
-      <c r="B73" s="4">
-        <v>56600</v>
+      <c r="B73" s="3">
+        <v>56.6</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
         <v>1.2522361359570633</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43405</v>
       </c>
-      <c r="B74" s="4">
-        <v>56600</v>
+      <c r="B74" s="3">
+        <v>56.6</v>
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
         <v>2.5362318840579601</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43374</v>
       </c>
-      <c r="B75" s="4">
-        <v>56400</v>
+      <c r="B75" s="3">
+        <v>56.4</v>
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
-        <v>2.1739130434782705</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2.1739130434782483</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43344</v>
       </c>
-      <c r="B76" s="4">
-        <v>56200</v>
+      <c r="B76" s="3">
+        <v>56.2</v>
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
-        <v>2.1818181818181737</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2.1818181818181959</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43313</v>
       </c>
-      <c r="B77" s="4">
-        <v>55900</v>
+      <c r="B77" s="3">
+        <v>55.9</v>
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
         <v>2.7573529411764719</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43282</v>
       </c>
-      <c r="B78" s="4">
-        <v>56100</v>
+      <c r="B78" s="3">
+        <v>56.1</v>
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
         <v>3.6968576709796697</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43252</v>
       </c>
-      <c r="B79" s="4">
-        <v>55700</v>
+      <c r="B79" s="3">
+        <v>55.7</v>
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
         <v>2.7675276752767486</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43221</v>
       </c>
-      <c r="B80" s="4">
-        <v>55900</v>
+      <c r="B80" s="3">
+        <v>55.9</v>
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
         <v>2.9465930018416131</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43191</v>
       </c>
-      <c r="B81" s="4">
-        <v>55900</v>
+      <c r="B81" s="3">
+        <v>55.9</v>
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
         <v>3.136531365313644</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43160</v>
       </c>
-      <c r="B82" s="4">
-        <v>55700</v>
+      <c r="B82" s="3">
+        <v>55.7</v>
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
         <v>2.9574861367837268</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43132</v>
       </c>
-      <c r="B83" s="4">
-        <v>55600</v>
+      <c r="B83" s="3">
+        <v>55.6</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
         <v>3.5381750465549366</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43101</v>
       </c>
-      <c r="B84" s="4">
-        <v>55300</v>
+      <c r="B84" s="3">
+        <v>55.3</v>
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
         <v>3.7523452157598447</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43070</v>
       </c>
-      <c r="B85" s="4">
-        <v>55900</v>
+      <c r="B85" s="3">
+        <v>55.9</v>
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
         <v>5.0751879699248104</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43040</v>
       </c>
-      <c r="B86" s="4">
-        <v>55200</v>
+      <c r="B86" s="3">
+        <v>55.2</v>
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
-        <v>4.5454545454545414</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>4.5454545454545636</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43009</v>
       </c>
-      <c r="B87" s="4">
-        <v>55200</v>
+      <c r="B87" s="3">
+        <v>55.2</v>
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
-        <v>4.5454545454545414</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>4.5454545454545636</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>42979</v>
       </c>
-      <c r="B88" s="4">
-        <v>55000</v>
+      <c r="B88" s="3">
+        <v>55</v>
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
         <v>4.7619047619047672</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>42948</v>
       </c>
-      <c r="B89" s="4">
-        <v>54400</v>
+      <c r="B89" s="3">
+        <v>54.4</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
         <v>4.2145593869731712</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>42917</v>
       </c>
-      <c r="B90" s="4">
-        <v>54100</v>
+      <c r="B90" s="3">
+        <v>54.1</v>
       </c>
       <c r="C90">
         <f t="shared" si="1"/>
         <v>4.0384615384615463</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>42887</v>
       </c>
-      <c r="B91" s="4">
-        <v>54200</v>
+      <c r="B91" s="3">
+        <v>54.2</v>
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
-        <v>3.632887189292533</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>3.6328871892925552</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>42856</v>
       </c>
-      <c r="B92" s="4">
-        <v>54300</v>
+      <c r="B92" s="3">
+        <v>54.3</v>
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
-        <v>4.4230769230769296</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>4.4230769230769074</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>42826</v>
       </c>
-      <c r="B93" s="4">
-        <v>54200</v>
+      <c r="B93" s="3">
+        <v>54.2</v>
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
-        <v>4.6332046332046239</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>4.6332046332046462</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>42795</v>
       </c>
-      <c r="B94" s="4">
-        <v>54100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="3">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>42767</v>
       </c>
-      <c r="B95" s="4">
-        <v>53700</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" s="3">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>42736</v>
       </c>
-      <c r="B96" s="4">
-        <v>53300</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B96" s="3">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>42705</v>
       </c>
-      <c r="B97" s="4">
-        <v>53200</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97" s="3">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>42675</v>
       </c>
-      <c r="B98" s="1">
-        <v>52800</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98" s="4">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>42644</v>
       </c>
-      <c r="B99" s="1">
-        <v>52800</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99" s="4">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>42614</v>
       </c>
-      <c r="B100" s="1">
-        <v>52500</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100" s="4">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>42583</v>
       </c>
-      <c r="B101" s="1">
-        <v>52200</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101" s="4">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>42552</v>
       </c>
-      <c r="B102" s="1">
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>42522</v>
       </c>
-      <c r="B103" s="1">
-        <v>52300</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103" s="4">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>42491</v>
       </c>
-      <c r="B104" s="1">
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B104" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>42461</v>
       </c>
-      <c r="B105" s="1">
-        <v>51800</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B105" s="4">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
     </row>
   </sheetData>

--- a/data/grocery-sales.xlsx
+++ b/data/grocery-sales.xlsx
@@ -401,7 +401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,213 +433,215 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>75.92</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>75.34</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2.1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="n">
+    <row r="4">
+      <c r="A4" s="5" t="n">
         <v>45748</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>75.91</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2.4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>76.37</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3.8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45689</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>76</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>76.18000000000001</v>
+        <v>76</v>
       </c>
       <c r="C6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45627</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B8" s="3" t="n">
         <v>76.04000000000001</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>2024-11-01</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B9" s="3" t="n">
         <v>75.23999999999999</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2.2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>75.14</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>74.5</v>
+        <v>75.14</v>
       </c>
       <c r="C11" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>74.90000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="C12" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>73.90000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>73.8</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>74.09999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="C15" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>73.59999999999999</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>73.3</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>73.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>73.5</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>73.59999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="C20" t="n">
         <v>0.3</v>
@@ -647,183 +649,183 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>73.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>73.5</v>
       </c>
       <c r="C22" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>73.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="C23" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>72.3</v>
+        <v>73</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>72.90000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="C26" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>72.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>73.2</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>73.59999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="C29" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>72.8</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>73.3</v>
+        <v>72.8</v>
       </c>
       <c r="C31" t="n">
-        <v>6.5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>73.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="C32" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>73.2</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>72.5</v>
+        <v>73.2</v>
       </c>
       <c r="C34" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>71.90000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="C35" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>71.7</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>71.7</v>
@@ -834,414 +836,414 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>71.2</v>
+        <v>71.7</v>
       </c>
       <c r="C38" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>70.40000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="C39" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>70.09999999999999</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>69.3</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B42" s="3" t="n">
         <v>69.3</v>
       </c>
       <c r="C42" t="n">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="C43" t="n">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>68.2</v>
+        <v>68.8</v>
       </c>
       <c r="C44" t="n">
-        <v>8.6</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>67.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>67.5</v>
+        <v>67.8</v>
       </c>
       <c r="C47" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>65.8</v>
+        <v>67.5</v>
       </c>
       <c r="C48" t="n">
-        <v>3.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B49" s="3" t="n">
         <v>65.8</v>
       </c>
       <c r="C49" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>65.2</v>
+        <v>65.8</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>64.59999999999999</v>
+        <v>65.2</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>64</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>-13.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>63.8</v>
+        <v>64</v>
       </c>
       <c r="C53" t="n">
-        <v>10.2</v>
+        <v>-13.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>63.5</v>
+        <v>63.8</v>
       </c>
       <c r="C54" t="n">
-        <v>9.699999999999999</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>62.7</v>
+        <v>63.5</v>
       </c>
       <c r="C55" t="n">
-        <v>7.2</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>62.8</v>
+        <v>62.7</v>
       </c>
       <c r="C56" t="n">
-        <v>8.300000000000001</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>61.9</v>
+        <v>62.8</v>
       </c>
       <c r="C57" t="n">
-        <v>6.9</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>62.3</v>
+        <v>61.9</v>
       </c>
       <c r="C58" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>62.4</v>
+        <v>62.3</v>
       </c>
       <c r="C59" t="n">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>63.5</v>
+        <v>62.4</v>
       </c>
       <c r="C60" t="n">
-        <v>8.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>63.1</v>
+        <v>63.5</v>
       </c>
       <c r="C61" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>64.59999999999999</v>
+        <v>63.1</v>
       </c>
       <c r="C62" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>64.09999999999999</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>11.1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>74.2</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>29.3</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>57.9</v>
+        <v>74.2</v>
       </c>
       <c r="C65" t="n">
-        <v>2.7</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B66" s="3" t="n">
         <v>57.9</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>58.5</v>
+        <v>57.9</v>
       </c>
       <c r="C67" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>58</v>
+        <v>58.5</v>
       </c>
       <c r="C68" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>57.9</v>
+        <v>58</v>
       </c>
       <c r="C69" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>58.1</v>
+        <v>57.9</v>
       </c>
       <c r="C70" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>58.7</v>
+        <v>58.1</v>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>58.6</v>
+        <v>58.7</v>
       </c>
       <c r="C72" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>57.9</v>
+        <v>58.6</v>
       </c>
       <c r="C73" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>57.7</v>
+        <v>57.9</v>
       </c>
       <c r="C74" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B75" s="3" t="n">
         <v>57.7</v>
@@ -1252,76 +1254,76 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>57.4</v>
+        <v>57.7</v>
       </c>
       <c r="C76" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>56.4</v>
+        <v>57.4</v>
       </c>
       <c r="C77" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>57.5</v>
+        <v>56.4</v>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>56.6</v>
+        <v>57.5</v>
       </c>
       <c r="C79" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B80" s="3" t="n">
         <v>56.6</v>
       </c>
       <c r="C80" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>56.4</v>
+        <v>56.6</v>
       </c>
       <c r="C81" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>56.2</v>
+        <v>56.4</v>
       </c>
       <c r="C82" t="n">
         <v>2.2</v>
@@ -1329,117 +1331,117 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>55.9</v>
+        <v>56.2</v>
       </c>
       <c r="C83" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>56.1</v>
+        <v>55.9</v>
       </c>
       <c r="C84" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>55.7</v>
+        <v>56.1</v>
       </c>
       <c r="C85" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>55.9</v>
+        <v>55.7</v>
       </c>
       <c r="C86" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B87" s="3" t="n">
         <v>55.9</v>
       </c>
       <c r="C87" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>55.7</v>
+        <v>55.9</v>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="C89" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="C90" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>55.9</v>
+        <v>55.3</v>
       </c>
       <c r="C91" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>55.2</v>
+        <v>55.9</v>
       </c>
       <c r="C92" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B93" s="3" t="n">
         <v>55.2</v>
@@ -1450,113 +1452,116 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="C94" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>54.4</v>
+        <v>55</v>
       </c>
       <c r="C95" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
       <c r="C97" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>54.3</v>
+        <v>54.2</v>
       </c>
       <c r="C98" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="C99" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>54.1</v>
+        <v>54.2</v>
+      </c>
+      <c r="C100" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>53.7</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>53.3</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>42675</v>
-      </c>
-      <c r="B104" s="4" t="n">
-        <v>52.8</v>
+        <v>42705</v>
+      </c>
+      <c r="B104" s="3" t="n">
+        <v>53.2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B105" s="4" t="n">
         <v>52.8</v>
@@ -1564,54 +1569,59 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B106" s="4" t="n">
-        <v>52.5</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B107" s="4" t="n">
-        <v>52.2</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B108" s="4" t="n">
-        <v>52</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B109" s="4" t="n">
-        <v>52.3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B110" s="4" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
+        <v>42491</v>
+      </c>
+      <c r="B111" s="4" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B112" s="4" t="n">
         <v>51.8</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n"/>
@@ -1624,6 +1634,9 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/grocery-sales.xlsx
+++ b/data/grocery-sales.xlsx
@@ -401,7 +401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,226 +433,228 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.92</v>
+        <v>76.5</v>
       </c>
       <c r="C2" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>75.92</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>75.34</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2.1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="n">
+    <row r="5">
+      <c r="A5" s="5" t="n">
         <v>45748</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>75.91</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2.4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>76.37</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3.8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45689</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>76</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>76.18000000000001</v>
+        <v>76</v>
       </c>
       <c r="C7" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45627</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B9" s="3" t="n">
         <v>76.04000000000001</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>2024-11-01</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B10" s="3" t="n">
         <v>75.23999999999999</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2.2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>75.14</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>74.5</v>
+        <v>75.14</v>
       </c>
       <c r="C12" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>74.90000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="C13" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>73.90000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>73.8</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>74.09999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="C16" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>73.59999999999999</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>73.3</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>73.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>73.5</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>73.59999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="C21" t="n">
         <v>0.3</v>
@@ -660,183 +662,183 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>73.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>73.5</v>
       </c>
       <c r="C23" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>73.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="C24" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>72.3</v>
+        <v>73</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>72.90000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="C27" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>72.90000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>73.2</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>73.59999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="C30" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>72.8</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>73.3</v>
+        <v>72.8</v>
       </c>
       <c r="C32" t="n">
-        <v>6.5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>73.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="C33" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>73.2</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>72.5</v>
+        <v>73.2</v>
       </c>
       <c r="C35" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>71.90000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="C36" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>71.7</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B38" s="3" t="n">
         <v>71.7</v>
@@ -847,414 +849,414 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>71.2</v>
+        <v>71.7</v>
       </c>
       <c r="C39" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>70.40000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="C40" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>70.09999999999999</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>69.3</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B43" s="3" t="n">
         <v>69.3</v>
       </c>
       <c r="C43" t="n">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="C44" t="n">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>68.2</v>
+        <v>68.8</v>
       </c>
       <c r="C45" t="n">
-        <v>8.6</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>67.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>67.5</v>
+        <v>67.8</v>
       </c>
       <c r="C48" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>65.8</v>
+        <v>67.5</v>
       </c>
       <c r="C49" t="n">
-        <v>3.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B50" s="3" t="n">
         <v>65.8</v>
       </c>
       <c r="C50" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>65.2</v>
+        <v>65.8</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>64.59999999999999</v>
+        <v>65.2</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>64</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>-13.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>63.8</v>
+        <v>64</v>
       </c>
       <c r="C54" t="n">
-        <v>10.2</v>
+        <v>-13.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>63.5</v>
+        <v>63.8</v>
       </c>
       <c r="C55" t="n">
-        <v>9.699999999999999</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>62.7</v>
+        <v>63.5</v>
       </c>
       <c r="C56" t="n">
-        <v>7.2</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>62.8</v>
+        <v>62.7</v>
       </c>
       <c r="C57" t="n">
-        <v>8.300000000000001</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>61.9</v>
+        <v>62.8</v>
       </c>
       <c r="C58" t="n">
-        <v>6.9</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>62.3</v>
+        <v>61.9</v>
       </c>
       <c r="C59" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>62.4</v>
+        <v>62.3</v>
       </c>
       <c r="C60" t="n">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>63.5</v>
+        <v>62.4</v>
       </c>
       <c r="C61" t="n">
-        <v>8.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>63.1</v>
+        <v>63.5</v>
       </c>
       <c r="C62" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>64.59999999999999</v>
+        <v>63.1</v>
       </c>
       <c r="C63" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>64.09999999999999</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>11.1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>74.2</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>29.3</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>57.9</v>
+        <v>74.2</v>
       </c>
       <c r="C66" t="n">
-        <v>2.7</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B67" s="3" t="n">
         <v>57.9</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>58.5</v>
+        <v>57.9</v>
       </c>
       <c r="C68" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>58</v>
+        <v>58.5</v>
       </c>
       <c r="C69" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>57.9</v>
+        <v>58</v>
       </c>
       <c r="C70" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>58.1</v>
+        <v>57.9</v>
       </c>
       <c r="C71" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>58.7</v>
+        <v>58.1</v>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>58.6</v>
+        <v>58.7</v>
       </c>
       <c r="C73" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>57.9</v>
+        <v>58.6</v>
       </c>
       <c r="C74" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>57.7</v>
+        <v>57.9</v>
       </c>
       <c r="C75" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B76" s="3" t="n">
         <v>57.7</v>
@@ -1265,76 +1267,76 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>57.4</v>
+        <v>57.7</v>
       </c>
       <c r="C77" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>56.4</v>
+        <v>57.4</v>
       </c>
       <c r="C78" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>57.5</v>
+        <v>56.4</v>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>56.6</v>
+        <v>57.5</v>
       </c>
       <c r="C80" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B81" s="3" t="n">
         <v>56.6</v>
       </c>
       <c r="C81" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>56.4</v>
+        <v>56.6</v>
       </c>
       <c r="C82" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>56.2</v>
+        <v>56.4</v>
       </c>
       <c r="C83" t="n">
         <v>2.2</v>
@@ -1342,117 +1344,117 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>55.9</v>
+        <v>56.2</v>
       </c>
       <c r="C84" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>56.1</v>
+        <v>55.9</v>
       </c>
       <c r="C85" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>55.7</v>
+        <v>56.1</v>
       </c>
       <c r="C86" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>55.9</v>
+        <v>55.7</v>
       </c>
       <c r="C87" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B88" s="3" t="n">
         <v>55.9</v>
       </c>
       <c r="C88" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>55.7</v>
+        <v>55.9</v>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="C90" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="C91" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>55.9</v>
+        <v>55.3</v>
       </c>
       <c r="C92" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>55.2</v>
+        <v>55.9</v>
       </c>
       <c r="C93" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B94" s="3" t="n">
         <v>55.2</v>
@@ -1463,113 +1465,116 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="C95" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>54.4</v>
+        <v>55</v>
       </c>
       <c r="C96" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
       <c r="C98" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>54.3</v>
+        <v>54.2</v>
       </c>
       <c r="C99" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="C100" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>54.1</v>
+        <v>54.2</v>
+      </c>
+      <c r="C101" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>53.7</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>53.3</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>42675</v>
-      </c>
-      <c r="B105" s="4" t="n">
-        <v>52.8</v>
+        <v>42705</v>
+      </c>
+      <c r="B105" s="3" t="n">
+        <v>53.2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B106" s="4" t="n">
         <v>52.8</v>
@@ -1577,54 +1582,59 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B107" s="4" t="n">
-        <v>52.5</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B108" s="4" t="n">
-        <v>52.2</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B109" s="4" t="n">
-        <v>52</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B110" s="4" t="n">
-        <v>52.3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B111" s="4" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
+        <v>42491</v>
+      </c>
+      <c r="B112" s="4" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B113" s="4" t="n">
         <v>51.8</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n"/>
@@ -1637,6 +1647,9 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/grocery-sales.xlsx
+++ b/data/grocery-sales.xlsx
@@ -401,7 +401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,239 +433,241 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76.5</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.92</v>
+        <v>76.5</v>
       </c>
       <c r="C3" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>75.92</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>75.34</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2.1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="n">
+    <row r="6">
+      <c r="A6" s="5" t="n">
         <v>45748</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>75.91</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2.4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>76.37</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45689</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>76</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>76.18000000000001</v>
+        <v>76</v>
       </c>
       <c r="C8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>45627</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B10" s="3" t="n">
         <v>76.04000000000001</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>2024-11-01</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B11" s="3" t="n">
         <v>75.23999999999999</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>2.2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>75.14</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>74.5</v>
+        <v>75.14</v>
       </c>
       <c r="C13" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>74.90000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="C14" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>73.90000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>73.8</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>74.09999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="C17" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>73.59999999999999</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>73.3</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>73.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>73.5</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>73.59999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="C22" t="n">
         <v>0.3</v>
@@ -673,183 +675,183 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>73.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>73.5</v>
       </c>
       <c r="C24" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>73.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="C25" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>72.3</v>
+        <v>73</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>72.90000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="C28" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>72.90000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>73.2</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>73.59999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="C31" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>72.8</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>73.3</v>
+        <v>72.8</v>
       </c>
       <c r="C33" t="n">
-        <v>6.5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>73.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="C34" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>73.2</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>72.5</v>
+        <v>73.2</v>
       </c>
       <c r="C36" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>71.90000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="C37" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>71.7</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>71.7</v>
@@ -860,414 +862,414 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>71.2</v>
+        <v>71.7</v>
       </c>
       <c r="C40" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>70.40000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="C41" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>70.09999999999999</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>69.3</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B44" s="3" t="n">
         <v>69.3</v>
       </c>
       <c r="C44" t="n">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="C45" t="n">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>68.2</v>
+        <v>68.8</v>
       </c>
       <c r="C46" t="n">
-        <v>8.6</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>67.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>67.5</v>
+        <v>67.8</v>
       </c>
       <c r="C49" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>65.8</v>
+        <v>67.5</v>
       </c>
       <c r="C50" t="n">
-        <v>3.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B51" s="3" t="n">
         <v>65.8</v>
       </c>
       <c r="C51" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>65.2</v>
+        <v>65.8</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>64.59999999999999</v>
+        <v>65.2</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>64</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>63.8</v>
+        <v>64</v>
       </c>
       <c r="C55" t="n">
-        <v>10.2</v>
+        <v>-13.7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>63.5</v>
+        <v>63.8</v>
       </c>
       <c r="C56" t="n">
-        <v>9.699999999999999</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>62.7</v>
+        <v>63.5</v>
       </c>
       <c r="C57" t="n">
-        <v>7.2</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>62.8</v>
+        <v>62.7</v>
       </c>
       <c r="C58" t="n">
-        <v>8.300000000000001</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>61.9</v>
+        <v>62.8</v>
       </c>
       <c r="C59" t="n">
-        <v>6.9</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>62.3</v>
+        <v>61.9</v>
       </c>
       <c r="C60" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>62.4</v>
+        <v>62.3</v>
       </c>
       <c r="C61" t="n">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>63.5</v>
+        <v>62.4</v>
       </c>
       <c r="C62" t="n">
-        <v>8.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>63.1</v>
+        <v>63.5</v>
       </c>
       <c r="C63" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>64.59999999999999</v>
+        <v>63.1</v>
       </c>
       <c r="C64" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>64.09999999999999</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>11.1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>74.2</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>29.3</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>57.9</v>
+        <v>74.2</v>
       </c>
       <c r="C67" t="n">
-        <v>2.7</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B68" s="3" t="n">
         <v>57.9</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>58.5</v>
+        <v>57.9</v>
       </c>
       <c r="C69" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>58</v>
+        <v>58.5</v>
       </c>
       <c r="C70" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>57.9</v>
+        <v>58</v>
       </c>
       <c r="C71" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>58.1</v>
+        <v>57.9</v>
       </c>
       <c r="C72" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>58.7</v>
+        <v>58.1</v>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>58.6</v>
+        <v>58.7</v>
       </c>
       <c r="C74" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>57.9</v>
+        <v>58.6</v>
       </c>
       <c r="C75" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>57.7</v>
+        <v>57.9</v>
       </c>
       <c r="C76" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B77" s="3" t="n">
         <v>57.7</v>
@@ -1278,76 +1280,76 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>57.4</v>
+        <v>57.7</v>
       </c>
       <c r="C78" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>56.4</v>
+        <v>57.4</v>
       </c>
       <c r="C79" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>57.5</v>
+        <v>56.4</v>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>56.6</v>
+        <v>57.5</v>
       </c>
       <c r="C81" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B82" s="3" t="n">
         <v>56.6</v>
       </c>
       <c r="C82" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>56.4</v>
+        <v>56.6</v>
       </c>
       <c r="C83" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>56.2</v>
+        <v>56.4</v>
       </c>
       <c r="C84" t="n">
         <v>2.2</v>
@@ -1355,117 +1357,117 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>55.9</v>
+        <v>56.2</v>
       </c>
       <c r="C85" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>56.1</v>
+        <v>55.9</v>
       </c>
       <c r="C86" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>55.7</v>
+        <v>56.1</v>
       </c>
       <c r="C87" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>55.9</v>
+        <v>55.7</v>
       </c>
       <c r="C88" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B89" s="3" t="n">
         <v>55.9</v>
       </c>
       <c r="C89" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>55.7</v>
+        <v>55.9</v>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="C91" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="C92" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>55.9</v>
+        <v>55.3</v>
       </c>
       <c r="C93" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>55.2</v>
+        <v>55.9</v>
       </c>
       <c r="C94" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B95" s="3" t="n">
         <v>55.2</v>
@@ -1476,113 +1478,116 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="C96" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>54.4</v>
+        <v>55</v>
       </c>
       <c r="C97" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
       <c r="C99" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>54.3</v>
+        <v>54.2</v>
       </c>
       <c r="C100" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="C101" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>54.1</v>
+        <v>54.2</v>
+      </c>
+      <c r="C102" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>53.7</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>53.3</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>42675</v>
-      </c>
-      <c r="B106" s="4" t="n">
-        <v>52.8</v>
+        <v>42705</v>
+      </c>
+      <c r="B106" s="3" t="n">
+        <v>53.2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B107" s="4" t="n">
         <v>52.8</v>
@@ -1590,54 +1595,59 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B108" s="4" t="n">
-        <v>52.5</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B109" s="4" t="n">
-        <v>52.2</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B110" s="4" t="n">
-        <v>52</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B111" s="4" t="n">
-        <v>52.3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B112" s="4" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
+        <v>42491</v>
+      </c>
+      <c r="B113" s="4" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B114" s="4" t="n">
         <v>51.8</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n"/>
@@ -1650,6 +1660,9 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
